--- a/analysis/xlsx/재무데이터_예측포함.xlsx
+++ b/analysis/xlsx/재무데이터_예측포함.xlsx
@@ -435,10 +435,10 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
